--- a/faraday/data/Book2.xlsx
+++ b/faraday/data/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackson\physics_387\faraday\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9308FB96-091D-44DD-A341-110677AC113A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCD9B22-3417-489B-8223-EDB3A904BF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3575F3C5-D2AE-4046-9C9E-C4B2BB311A8A}"/>
   </bookViews>
